--- a/KahootBlank.xlsx
+++ b/KahootBlank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\4B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\Y0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A125F48D-4950-46CC-B3A9-A3B785E2970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66014F10-0A2A-4A5A-9E35-0832C932160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12" yWindow="-528" windowWidth="17088" windowHeight="12660" tabRatio="338" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Quiz template</t>
   </si>
@@ -72,12 +72,78 @@
   <si>
     <t>Method overriding in Java allows changing the method's visibility from public to private.</t>
   </si>
+  <si>
+    <t xml:space="preserve">What does the 'throws' keyword do? </t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>declare</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>what type of loop is used to print each number in the array in the 'simpleAdder' program?</t>
+  </si>
+  <si>
+    <t>while loop</t>
+  </si>
+  <si>
+    <t>for loop</t>
+  </si>
+  <si>
+    <t>enhanced for loop</t>
+  </si>
+  <si>
+    <t>do-while loop</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What will happen if you try to access 'accounts[4]' in an array declared as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BankAccount [] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>accounts = new BankAccount [4];?</t>
+    </r>
+  </si>
+  <si>
+    <t>The program will successfully assign the value to 'accounts [4]'.</t>
+  </si>
+  <si>
+    <t>ArrayIndexOutOfBoundsException* will be thrown.</t>
+  </si>
+  <si>
+    <t>A compilation error will occur.</t>
+  </si>
+  <si>
+    <t>A 'NullPointerException' will be thrown after the code gets executed,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -160,6 +226,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -205,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -254,6 +327,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1119,13 +1198,27 @@
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="19">
+        <v>10</v>
+      </c>
+      <c r="H10" s="19">
+        <v>3</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1150,13 +1243,27 @@
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="19">
+        <v>10</v>
+      </c>
+      <c r="H11" s="19">
+        <v>3</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1181,11 +1288,21 @@
       <c r="A12" s="11">
         <v>5</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="1"/>
@@ -1212,7 +1329,7 @@
       <c r="A13" s="11">
         <v>6</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -4943,11 +5060,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>